--- a/servicio.xlsx
+++ b/servicio.xlsx
@@ -1,616 +1,637 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djohnson\Code\xlsx-populate\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71A06CC-9CAA-4991-A6BA-36E79C384F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descripcion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5eff73c91c1a1a27f0144ce2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRECIO 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f14b4491c1a1a42a023c6e4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICION TUPIZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f14b4b11c1a1a4888676964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICION COLABORADORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f14b5071c1a1a42941a11b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA TU OPTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f14b57d1c1a1a48826cf827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICION SIN COSTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f159b4c1c1a1a22012f3c5e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICION YACUIBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f15a4411c1a1a2c2d321ef3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA YACUIBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f21a8fe1c1a1a2aae44d474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recorte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f2831801c1a1a13fc541042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICION POTOSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f5bbbcf1c1a1a072c78d32a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICION OPTIENTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60620eef1c1a1a4c037dd602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRABADO DE LENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60905a361c1a1a14d440b0b3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="197">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>tipo precio</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>5eff73c91c1a1a27f0144ce2</t>
+  </si>
+  <si>
+    <t>MEDICION</t>
+  </si>
+  <si>
+    <t>PRECIO 1</t>
+  </si>
+  <si>
+    <t>5f14b4491c1a1a42a023c6e4</t>
+  </si>
+  <si>
+    <t>MEDICION TUPIZA</t>
+  </si>
+  <si>
+    <t>5f14b4b11c1a1a4888676964</t>
+  </si>
+  <si>
+    <t>MEDICION COLABORADORES</t>
+  </si>
+  <si>
+    <t>5f14b5071c1a1a42941a11b5</t>
+  </si>
+  <si>
+    <t>CONSULTA TU OPTICA</t>
+  </si>
+  <si>
+    <t>5f14b57d1c1a1a48826cf827</t>
+  </si>
+  <si>
+    <t>MEDICION SIN COSTO</t>
+  </si>
+  <si>
+    <t>5f159b4c1c1a1a22012f3c5e</t>
+  </si>
+  <si>
+    <t>MEDICION YACUIBA</t>
+  </si>
+  <si>
+    <t>5f15a4411c1a1a2c2d321ef3</t>
+  </si>
+  <si>
+    <t>CONSULTA YACUIBA</t>
+  </si>
+  <si>
+    <t>5f21a8fe1c1a1a2aae44d474</t>
+  </si>
+  <si>
+    <t>Recorte</t>
+  </si>
+  <si>
+    <t>5f2831801c1a1a13fc541042</t>
+  </si>
+  <si>
+    <t>MEDICION POTOSI</t>
+  </si>
+  <si>
+    <t>5f5bbbcf1c1a1a072c78d32a</t>
+  </si>
+  <si>
+    <t>MEDICION OPTIENTRO</t>
+  </si>
+  <si>
+    <t>60620eef1c1a1a4c037dd602</t>
+  </si>
+  <si>
+    <t>GRABADO DE LENTES</t>
+  </si>
+  <si>
+    <t>60905a361c1a1a14d440b0b3</t>
   </si>
   <si>
     <t xml:space="preserve">CONSULTA  LA PAZ </t>
   </si>
   <si>
-    <t xml:space="preserve">61a917291c1a1a0f9d7f3121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA LA PAZ (CONVENIO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61b8b1d71c1a1a39bc002e13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTORIO LA PAZ 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6220dcd41c1a1a394d64ae22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA LA PAZ INTERNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">623381cb8c91e770af057fe5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTAS COTEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6238d8cf8c91e72a544b0aa2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA LA PAZ EXTERNA 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6256c4628c91e77ea9531e12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLENDED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63505f0db3058e9f0a0c6ff3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TONOMETRIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6405f4942a4a38f73f0a7802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICION SIN COSTO DERIVADA DE OPTICENTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640666b70dc1999cd3093a12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTORIO OFTALMOLOGICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6408ce9056a3a10c8607a332</t>
+    <t>61a917291c1a1a0f9d7f3121</t>
+  </si>
+  <si>
+    <t>CONSULTA LA PAZ (CONVENIO)</t>
+  </si>
+  <si>
+    <t>61b8b1d71c1a1a39bc002e13</t>
+  </si>
+  <si>
+    <t>CONSULTORIO LA PAZ 2</t>
+  </si>
+  <si>
+    <t>6220dcd41c1a1a394d64ae22</t>
+  </si>
+  <si>
+    <t>CONSULTA LA PAZ INTERNA</t>
+  </si>
+  <si>
+    <t>623381cb8c91e770af057fe5</t>
+  </si>
+  <si>
+    <t>CONSULTAS COTEL</t>
+  </si>
+  <si>
+    <t>6238d8cf8c91e72a544b0aa2</t>
+  </si>
+  <si>
+    <t>CONSULTA LA PAZ EXTERNA 2</t>
+  </si>
+  <si>
+    <t>6256c4628c91e77ea9531e12</t>
+  </si>
+  <si>
+    <t>BLENDED</t>
+  </si>
+  <si>
+    <t>63505f0db3058e9f0a0c6ff3</t>
+  </si>
+  <si>
+    <t>TONOMETRIA</t>
+  </si>
+  <si>
+    <t>6405f4942a4a38f73f0a7802</t>
+  </si>
+  <si>
+    <t>MEDICION SIN COSTO DERIVADA DE OPTICENTRO</t>
+  </si>
+  <si>
+    <t>640666b70dc1999cd3093a12</t>
+  </si>
+  <si>
+    <t>CONSULTORIO OFTALMOLOGICO</t>
+  </si>
+  <si>
+    <t>6408ce9056a3a10c8607a332</t>
   </si>
   <si>
     <t xml:space="preserve">RECONSULTA </t>
   </si>
   <si>
-    <t xml:space="preserve">640f26765ac15a595f04c512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA DE EMERGENCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">641a1a5c5c26bb6b970fdfc2</t>
+    <t>640f26765ac15a595f04c512</t>
+  </si>
+  <si>
+    <t>CONSULTA DE EMERGENCIA</t>
+  </si>
+  <si>
+    <t>641a1a5c5c26bb6b970fdfc2</t>
   </si>
   <si>
     <t xml:space="preserve">CUERPO EXTRANO </t>
   </si>
   <si>
-    <t xml:space="preserve">641dafcbad7a9d1104006a42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERIVACION ECONOPTICA (BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6421e9774f6bd65a10010982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERIVAION  ECONOPTICA SIN COSTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643e8016e859bfcf7a07e3d0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERIVACION (CIMES)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643e803dccd50d4bde061702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERIVACION (SOLEX)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643e8149ddcfe6c03908e9a0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERIVACION (IPTK)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643e81760a826375e40dc310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERIVACION (SEGIP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643e8317112c791fd6029470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICIO DE EMERGENCIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643e8348e859bfcf7a07e3d3</t>
+    <t>641dafcbad7a9d1104006a42</t>
+  </si>
+  <si>
+    <t>DERIVACION ECONOPTICA (BARON)</t>
+  </si>
+  <si>
+    <t>6421e9774f6bd65a10010982</t>
+  </si>
+  <si>
+    <t>DERIVAION  ECONOPTICA SIN COSTO</t>
+  </si>
+  <si>
+    <t>643e8016e859bfcf7a07e3d0</t>
+  </si>
+  <si>
+    <t>DERIVACION (CIMES)</t>
+  </si>
+  <si>
+    <t>643e803dccd50d4bde061702</t>
+  </si>
+  <si>
+    <t>DERIVACION (SOLEX)</t>
+  </si>
+  <si>
+    <t>643e8149ddcfe6c03908e9a0</t>
+  </si>
+  <si>
+    <t>DERIVACION (IPTK)</t>
+  </si>
+  <si>
+    <t>643e81760a826375e40dc310</t>
+  </si>
+  <si>
+    <t>DERIVACION (SEGIP)</t>
+  </si>
+  <si>
+    <t>643e8317112c791fd6029470</t>
+  </si>
+  <si>
+    <t>SERVICIO DE EMERGENCIAS</t>
+  </si>
+  <si>
+    <t>643e8348e859bfcf7a07e3d3</t>
   </si>
   <si>
     <t xml:space="preserve">EMERGENCIAS DE CUERPO EXTRANO </t>
   </si>
   <si>
-    <t xml:space="preserve">643e8375ccd50d4bde061703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDIMIENTO EXTRA FONDO DE OJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643e8389fa5d198631079ff0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONDAJE LAGRIMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643e83aa2bac5d841b07c190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FONDO DE OJO (FO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643e83ceddcfe6c03908e9a3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDIMIENTO DE RETIRO DE CUERPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6464fbeb6b8906c99b0686f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHALAZION - ORZUELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6464fc18e5b6adb0ea063d83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTERIGIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6464fc390d0b8d0ba90d5d12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTRACCION DE CUERPOS EXTRAÑOS EN CAMILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64847cf0179a8612290f6ac2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA FAMILIARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64847d4f24466dbba901a622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA COLABORADORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64a2cd87b402b5f1d0089532</t>
+    <t>643e8375ccd50d4bde061703</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO EXTRA FONDO DE OJO</t>
+  </si>
+  <si>
+    <t>643e8389fa5d198631079ff0</t>
+  </si>
+  <si>
+    <t>SONDAJE LAGRIMAL</t>
+  </si>
+  <si>
+    <t>643e83aa2bac5d841b07c190</t>
+  </si>
+  <si>
+    <t>FONDO DE OJO (FO)</t>
+  </si>
+  <si>
+    <t>643e83ceddcfe6c03908e9a3</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO DE RETIRO DE CUERPO</t>
+  </si>
+  <si>
+    <t>6464fbeb6b8906c99b0686f2</t>
+  </si>
+  <si>
+    <t>CHALAZION - ORZUELO</t>
+  </si>
+  <si>
+    <t>6464fc18e5b6adb0ea063d83</t>
+  </si>
+  <si>
+    <t>PTERIGIÓN</t>
+  </si>
+  <si>
+    <t>6464fc390d0b8d0ba90d5d12</t>
+  </si>
+  <si>
+    <t>EXTRACCION DE CUERPOS EXTRAÑOS EN CAMILLA</t>
+  </si>
+  <si>
+    <t>64847cf0179a8612290f6ac2</t>
+  </si>
+  <si>
+    <t>CONSULTA FAMILIARES</t>
+  </si>
+  <si>
+    <t>64847d4f24466dbba901a622</t>
+  </si>
+  <si>
+    <t>CONSULTA COLABORADORES</t>
+  </si>
+  <si>
+    <t>64a2cd87b402b5f1d0089532</t>
   </si>
   <si>
     <t xml:space="preserve">CERTIFICADO MEDICO </t>
   </si>
   <si>
-    <t xml:space="preserve">64fb362e63da016a100b56b8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIRUGIA DE PUNTOPLASTIA (DRA MELODY SALAZAR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6512fdb371abcc92d00192d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">652d3cd9e6a3e00b570fd802</t>
+    <t>64fb362e63da016a100b56b8</t>
+  </si>
+  <si>
+    <t>CIRUGIA DE PUNTOPLASTIA (DRA MELODY SALAZAR)</t>
+  </si>
+  <si>
+    <t>6512fdb371abcc92d00192d2</t>
+  </si>
+  <si>
+    <t>652d3cd9e6a3e00b570fd802</t>
   </si>
   <si>
     <t xml:space="preserve">Convenio Clinica los Angeles </t>
   </si>
   <si>
-    <t xml:space="preserve">657cc122a16c1905040933c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICIO DE PRISMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6580ba3ceda4e9913502ab06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERIVAION TU OPTICA  SIN COSTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">675b42f3184e7d28170d9aad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICION CONVENIO PROSYSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67f82f6502c5b551770bfbb0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICIO DE SOLDADURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRECIO 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f14b4711c1a1a466e0fbd34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICION A FAMILIARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f358e521c1a1a3221133e73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICION ECONOPTICA CAMPESINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63948af20b283899d30eab31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRATAMIENTO ESPECIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">641da654c23500bb53062e09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTORIO OFTALMOLOGICO DRA . BARON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f3f00571c1a1a5a0f3d4906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLDE POR OJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA TERCEROS 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f3f00711c1a1a59631b7f46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTE TONALIDADES SUAVES O INTERMEDIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f3f00801c1a1a4fbf6c4248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTE TONALIDAD OSCURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f3f00a61c1a1a5a0f3d4907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPA ANTI-RAYAS AMBOS OJOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f3f00b41c1a1a5a121cc613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTAJE MARCO COMPLETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f3f00c91c1a1a5a994c3346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTAJE MEDIO MARCO (RANURADO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f3f00d41c1a1a4cb969b084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTAJE FLOTANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f3f01081c1a1a4cb969b085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTAJE ESPECIAL (OTRAS FORMAS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f3f01201c1a1a5d1f1ab882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTAJE ESPECIAL MONTURAS DEPORTIVAS O CURVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECO 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60be93b31c1a1a07f1326e02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECONSULTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61255b961c1a1a2d3d5c1b66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultorio Camargo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353cfb1c1a1a48153f3063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHALAZION DRA. BARON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353d321c1a1a3f602c70f4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORZUELO (DRA BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353d621c1a1a480c34a664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUISTES DE RETENCION (DRA. BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353d8f1c1a1a480d4ce492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUISTE CONJUNTIVAL (DRA BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353dbd1c1a1a451e0d7cb4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LESIONES CONJUNTIVALES (DRA BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353dda1c1a1a451e0d7cb5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUTURACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353e161c1a1a4cf3394542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERRUGA PALPEBRAL (DRA BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353e3c1c1a1a4d0545cff2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUISTE SEBACEO (DRA BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353e611c1a1a4d00430913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTUDIO DE SINDROME DE OJO SECO (DRA BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353e7f1c1a1a4d00430914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTERIGION (DRA BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353eac1c1a1a4d07177973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTERIGION INTERNO Y EXTERNO (DRA BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353eca1c1a1a4d07177974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA PATOLOGICA  (DRA BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61353eec1c1a1a501c47cb72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERTIFICADO MEDICO (DRA BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61af9c891c1a1a7ee372a332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTUDIO DEGENERACION MACULAR (DRA. BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61af9cbb1c1a1a7eda46e2d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTUDIO RETINOPATIA DIABETICA (DRA. BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61af9cdc1c1a1a02420d46b3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLAUCOMA (DRA. BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">629b5f0c8c91e7683b1b0214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA INTERNA ECONOPTICA CAMARGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">629b5f4d8c91e7698a62af82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSULTA EXTERNA ECONOPTICA CAMARGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65216a7a6406c434b806f6f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FONDO DE OJO (DRA. BARON)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67194d1c182e9f8107095492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMBIO DE HILO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECO 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63d0654d173473b0c5013cd7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulta Patalogica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISION POTOSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f6f5c881c1a1a46aa096ebe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRATAMIENTO ANTIREFLEJO VERDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f6f5ca31c1a1a480a698ee2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRATAMIENTO ANTIREFLEJO AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONA VISION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONA OPTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTA TERCEROS 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f6e18c41c1a1a27c452e672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISEL PULIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F&amp;F 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">636f2ad6fddf507d930d7af5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTURA PROPIA MONTAJE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F&amp;F 2</t>
+    <t>657cc122a16c1905040933c2</t>
+  </si>
+  <si>
+    <t>SERVICIO DE PRISMA</t>
+  </si>
+  <si>
+    <t>6580ba3ceda4e9913502ab06</t>
+  </si>
+  <si>
+    <t>DERIVAION TU OPTICA  SIN COSTO</t>
+  </si>
+  <si>
+    <t>675b42f3184e7d28170d9aad</t>
+  </si>
+  <si>
+    <t>MEDICION CONVENIO PROSYSO</t>
+  </si>
+  <si>
+    <t>67f82f6502c5b551770bfbb0</t>
+  </si>
+  <si>
+    <t>SERVICIO DE SOLDADURA</t>
+  </si>
+  <si>
+    <t>PRECIO 2</t>
+  </si>
+  <si>
+    <t>5f14b4711c1a1a466e0fbd34</t>
+  </si>
+  <si>
+    <t>MEDICION A FAMILIARES</t>
+  </si>
+  <si>
+    <t>5f358e521c1a1a3221133e73</t>
+  </si>
+  <si>
+    <t>MEDICION ECONOPTICA CAMPESINO</t>
+  </si>
+  <si>
+    <t>63948af20b283899d30eab31</t>
+  </si>
+  <si>
+    <t>TRATAMIENTO ESPECIAL</t>
+  </si>
+  <si>
+    <t>641da654c23500bb53062e09</t>
+  </si>
+  <si>
+    <t>CONSULTORIO OFTALMOLOGICO DRA . BARON</t>
+  </si>
+  <si>
+    <t>5f3f00571c1a1a5a0f3d4906</t>
+  </si>
+  <si>
+    <t>MOLDE POR OJO</t>
+  </si>
+  <si>
+    <t>VENTA TERCEROS 1</t>
+  </si>
+  <si>
+    <t>5f3f00711c1a1a59631b7f46</t>
+  </si>
+  <si>
+    <t>TINTE TONALIDADES SUAVES O INTERMEDIAS</t>
+  </si>
+  <si>
+    <t>5f3f00801c1a1a4fbf6c4248</t>
+  </si>
+  <si>
+    <t>TINTE TONALIDAD OSCURA</t>
+  </si>
+  <si>
+    <t>5f3f00a61c1a1a5a0f3d4907</t>
+  </si>
+  <si>
+    <t>CAPA ANTI-RAYAS AMBOS OJOS</t>
+  </si>
+  <si>
+    <t>5f3f00b41c1a1a5a121cc613</t>
+  </si>
+  <si>
+    <t>MONTAJE MARCO COMPLETO</t>
+  </si>
+  <si>
+    <t>5f3f00c91c1a1a5a994c3346</t>
+  </si>
+  <si>
+    <t>MONTAJE MEDIO MARCO (RANURADO)</t>
+  </si>
+  <si>
+    <t>5f3f00d41c1a1a4cb969b084</t>
+  </si>
+  <si>
+    <t>MONTAJE FLOTANTE</t>
+  </si>
+  <si>
+    <t>5f3f01081c1a1a4cb969b085</t>
+  </si>
+  <si>
+    <t>MONTAJE ESPECIAL (OTRAS FORMAS)</t>
+  </si>
+  <si>
+    <t>5f3f01201c1a1a5d1f1ab882</t>
+  </si>
+  <si>
+    <t>MONTAJE ESPECIAL MONTURAS DEPORTIVAS O CURVAS</t>
+  </si>
+  <si>
+    <t>ECO 1</t>
+  </si>
+  <si>
+    <t>60be93b31c1a1a07f1326e02</t>
+  </si>
+  <si>
+    <t>RECONSULTA</t>
+  </si>
+  <si>
+    <t>61255b961c1a1a2d3d5c1b66</t>
+  </si>
+  <si>
+    <t>Consultorio Camargo</t>
+  </si>
+  <si>
+    <t>61353cfb1c1a1a48153f3063</t>
+  </si>
+  <si>
+    <t>CHALAZION DRA. BARON</t>
+  </si>
+  <si>
+    <t>61353d321c1a1a3f602c70f4</t>
+  </si>
+  <si>
+    <t>ORZUELO (DRA BARON)</t>
+  </si>
+  <si>
+    <t>61353d621c1a1a480c34a664</t>
+  </si>
+  <si>
+    <t>QUISTES DE RETENCION (DRA. BARON)</t>
+  </si>
+  <si>
+    <t>61353d8f1c1a1a480d4ce492</t>
+  </si>
+  <si>
+    <t>QUISTE CONJUNTIVAL (DRA BARON)</t>
+  </si>
+  <si>
+    <t>61353dbd1c1a1a451e0d7cb4</t>
+  </si>
+  <si>
+    <t>LESIONES CONJUNTIVALES (DRA BARON)</t>
+  </si>
+  <si>
+    <t>61353dda1c1a1a451e0d7cb5</t>
+  </si>
+  <si>
+    <t>SUTURACIONES</t>
+  </si>
+  <si>
+    <t>61353e161c1a1a4cf3394542</t>
+  </si>
+  <si>
+    <t>VERRUGA PALPEBRAL (DRA BARON)</t>
+  </si>
+  <si>
+    <t>61353e3c1c1a1a4d0545cff2</t>
+  </si>
+  <si>
+    <t>QUISTE SEBACEO (DRA BARON)</t>
+  </si>
+  <si>
+    <t>61353e611c1a1a4d00430913</t>
+  </si>
+  <si>
+    <t>ESTUDIO DE SINDROME DE OJO SECO (DRA BARON)</t>
+  </si>
+  <si>
+    <t>61353e7f1c1a1a4d00430914</t>
+  </si>
+  <si>
+    <t>PTERIGION (DRA BARON)</t>
+  </si>
+  <si>
+    <t>61353eac1c1a1a4d07177973</t>
+  </si>
+  <si>
+    <t>PTERIGION INTERNO Y EXTERNO (DRA BARON)</t>
+  </si>
+  <si>
+    <t>61353eca1c1a1a4d07177974</t>
+  </si>
+  <si>
+    <t>CONSULTA PATOLOGICA  (DRA BARON)</t>
+  </si>
+  <si>
+    <t>61353eec1c1a1a501c47cb72</t>
+  </si>
+  <si>
+    <t>CERTIFICADO MEDICO (DRA BARON)</t>
+  </si>
+  <si>
+    <t>61af9c891c1a1a7ee372a332</t>
+  </si>
+  <si>
+    <t>ESTUDIO DEGENERACION MACULAR (DRA. BARON)</t>
+  </si>
+  <si>
+    <t>61af9cbb1c1a1a7eda46e2d2</t>
+  </si>
+  <si>
+    <t>ESTUDIO RETINOPATIA DIABETICA (DRA. BARON)</t>
+  </si>
+  <si>
+    <t>61af9cdc1c1a1a02420d46b3</t>
+  </si>
+  <si>
+    <t>GLAUCOMA (DRA. BARON)</t>
+  </si>
+  <si>
+    <t>629b5f0c8c91e7683b1b0214</t>
+  </si>
+  <si>
+    <t>CONSULTA INTERNA ECONOPTICA CAMARGO</t>
+  </si>
+  <si>
+    <t>629b5f4d8c91e7698a62af82</t>
+  </si>
+  <si>
+    <t>CONSULTA EXTERNA ECONOPTICA CAMARGO</t>
+  </si>
+  <si>
+    <t>65216a7a6406c434b806f6f2</t>
+  </si>
+  <si>
+    <t>FONDO DE OJO (DRA. BARON)</t>
+  </si>
+  <si>
+    <t>67194d1c182e9f8107095492</t>
+  </si>
+  <si>
+    <t>CAMBIO DE HILO</t>
+  </si>
+  <si>
+    <t>ECO 2</t>
+  </si>
+  <si>
+    <t>63d0654d173473b0c5013cd7</t>
+  </si>
+  <si>
+    <t>Consulta Patalogica</t>
+  </si>
+  <si>
+    <t>VISION POTOSI</t>
+  </si>
+  <si>
+    <t>5f6f5c881c1a1a46aa096ebe</t>
+  </si>
+  <si>
+    <t>TRATAMIENTO ANTIREFLEJO VERDE</t>
+  </si>
+  <si>
+    <t>5f6f5ca31c1a1a480a698ee2</t>
+  </si>
+  <si>
+    <t>TRATAMIENTO ANTIREFLEJO AZUL</t>
+  </si>
+  <si>
+    <t>ZONA VISION</t>
+  </si>
+  <si>
+    <t>ZONA OPTICA</t>
+  </si>
+  <si>
+    <t>VENTA TERCEROS 2</t>
+  </si>
+  <si>
+    <t>5f6e18c41c1a1a27c452e672</t>
+  </si>
+  <si>
+    <t>BISEL PULIDO</t>
+  </si>
+  <si>
+    <t>F&amp;F 1</t>
+  </si>
+  <si>
+    <t>636f2ad6fddf507d930d7af5</t>
+  </si>
+  <si>
+    <t>MONTURA PROPIA MONTAJE</t>
+  </si>
+  <si>
+    <t>F&amp;F 2</t>
+  </si>
+  <si>
+    <t>comsion fija</t>
+  </si>
+  <si>
+    <t>comsiom 2%</t>
+  </si>
+  <si>
+    <t>comsisio 3%</t>
+  </si>
+  <si>
+    <t>comsion fija2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts/>
-  <fonts x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,7 +640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills>
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,7 +648,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -639,13 +660,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -656,6 +690,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61AE32DC-C1A2-4F33-BA86-07E7DC65772E}" name="Tabla1" displayName="Tabla1" ref="A1:I203" totalsRowShown="0">
+  <autoFilter ref="A1:I203" xr:uid="{61AE32DC-C1A2-4F33-BA86-07E7DC65772E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3CEB0556-6DC3-4C45-80B2-CC7BFF9A7ACA}" name="id"/>
+    <tableColumn id="2" xr3:uid="{13E6423B-57B6-4771-B959-F28CC945EC92}" name="nombre"/>
+    <tableColumn id="3" xr3:uid="{F0FB3F0D-F2E5-4EC7-8714-61B9863CD1E1}" name="descripcion"/>
+    <tableColumn id="4" xr3:uid="{CA118D95-6253-435C-AFBC-BCC9104367EB}" name="tipo precio"/>
+    <tableColumn id="5" xr3:uid="{A3E5216C-990E-4D39-A7A4-408D04B3A703}" name="monto"/>
+    <tableColumn id="6" xr3:uid="{60A1CFD8-7F7D-416B-BBFD-3FCF0D5D8621}" name="comsisio 3%" dataDxfId="3">
+      <calculatedColumnFormula>E2*0.003</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D3A28741-95BC-461E-A1C5-4966140AAC3C}" name="comsion fija" dataDxfId="0">
+      <calculatedColumnFormula>M11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{A40AB5FB-684A-4A44-9B8F-24BFFD8D2D88}" name="comsiom 2%" dataDxfId="2">
+      <calculatedColumnFormula>E2*0.002</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{6541D69F-075C-4F85-8705-D85E2A55159E}" name="comsion fija2" dataDxfId="1">
+      <calculatedColumnFormula>ROUNDDOWN(H2,-2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,14 +980,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="7" max="7" width="26.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="25.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,8 +1015,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -960,8 +1044,24 @@
       <c r="E2">
         <v>150</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2">
+        <f t="shared" ref="F2:F65" si="0">E2*0.003</f>
+        <v>0.45</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G65" si="1">M11</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H65" si="2">E2*0.002</f>
+        <v>0.3</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I65" si="3">ROUNDDOWN(H2,-2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -977,8 +1077,24 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -994,8 +1110,24 @@
       <c r="E4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1011,8 +1143,24 @@
       <c r="E5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1028,8 +1176,24 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1045,8 +1209,24 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1062,8 +1242,24 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1079,8 +1275,24 @@
       <c r="E9">
         <v>35</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.105</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1096,8 +1308,24 @@
       <c r="E10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1113,8 +1341,24 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1130,8 +1374,24 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1147,8 +1407,24 @@
       <c r="E13">
         <v>150</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1164,8 +1440,24 @@
       <c r="E14">
         <v>140</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1181,8 +1473,24 @@
       <c r="E15">
         <v>280</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1198,8 +1506,24 @@
       <c r="E16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1215,8 +1539,24 @@
       <c r="E17">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1232,8 +1572,24 @@
       <c r="E18">
         <v>150</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1249,8 +1605,24 @@
       <c r="E19">
         <v>200</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1266,8 +1638,24 @@
       <c r="E20">
         <v>80</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1283,8 +1671,24 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1300,8 +1704,24 @@
       <c r="E22">
         <v>250</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1317,8 +1737,24 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1334,8 +1770,24 @@
       <c r="E24">
         <v>250</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1351,8 +1803,24 @@
       <c r="E25">
         <v>70</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1368,8 +1836,24 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1385,8 +1869,24 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1402,8 +1902,24 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1419,8 +1935,24 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1436,8 +1968,24 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1453,8 +2001,24 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1470,8 +2034,24 @@
       <c r="E32">
         <v>300</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1487,8 +2067,24 @@
       <c r="E33">
         <v>200</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1504,8 +2100,24 @@
       <c r="E34">
         <v>70</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1521,8 +2133,24 @@
       <c r="E35">
         <v>250</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1538,8 +2166,24 @@
       <c r="E36">
         <v>150</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1555,8 +2199,24 @@
       <c r="E37">
         <v>70</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1572,8 +2232,24 @@
       <c r="E38">
         <v>750</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1589,8 +2265,24 @@
       <c r="E39">
         <v>2300</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -1606,8 +2298,24 @@
       <c r="E40">
         <v>750</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1623,8 +2331,24 @@
       <c r="E41">
         <v>130</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -1640,8 +2364,24 @@
       <c r="E42">
         <v>130</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -1657,8 +2397,24 @@
       <c r="E43">
         <v>150</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1674,8 +2430,24 @@
       <c r="E44">
         <v>1200</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -1691,8 +2463,24 @@
       <c r="E45">
         <v>100</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -1708,8 +2496,24 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -1725,8 +2529,24 @@
       <c r="E47">
         <v>200</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -1742,8 +2562,24 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -1759,8 +2595,24 @@
       <c r="E49">
         <v>100</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -1776,8 +2628,24 @@
       <c r="E50">
         <v>90</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1793,8 +2661,24 @@
       <c r="E51">
         <v>150</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1810,8 +2694,24 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -1827,8 +2727,24 @@
       <c r="E53">
         <v>50</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1844,8 +2760,24 @@
       <c r="E54">
         <v>50</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1861,8 +2793,24 @@
       <c r="E55">
         <v>200</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -1878,8 +2826,24 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1895,8 +2859,24 @@
       <c r="E57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -1912,8 +2892,24 @@
       <c r="E58">
         <v>100</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1929,8 +2925,24 @@
       <c r="E59">
         <v>35</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0.105</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1946,8 +2958,24 @@
       <c r="E60">
         <v>80</v>
       </c>
-    </row>
-    <row r="61">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -1963,8 +2991,24 @@
       <c r="E61">
         <v>80</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -1980,8 +3024,24 @@
       <c r="E62">
         <v>100</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -1997,8 +3057,24 @@
       <c r="E63">
         <v>100</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -2014,8 +3090,24 @@
       <c r="E64">
         <v>150</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +3123,24 @@
       <c r="E65">
         <v>280</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -2048,8 +3156,24 @@
       <c r="E66">
         <v>30</v>
       </c>
-    </row>
-    <row r="67">
+      <c r="F66">
+        <f t="shared" ref="F66:F129" si="4">E66*0.003</f>
+        <v>0.09</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66:G129" si="5">M75</f>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H129" si="6">E66*0.002</f>
+        <v>0.06</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:I129" si="7">ROUNDDOWN(H66,-2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -2065,8 +3189,24 @@
       <c r="E67">
         <v>150</v>
       </c>
-    </row>
-    <row r="68">
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -2082,8 +3222,24 @@
       <c r="E68">
         <v>200</v>
       </c>
-    </row>
-    <row r="69">
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -2099,8 +3255,24 @@
       <c r="E69">
         <v>80</v>
       </c>
-    </row>
-    <row r="70">
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>0.24</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>0.16</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>108</v>
       </c>
@@ -2116,8 +3288,24 @@
       <c r="E70">
         <v>200</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -2133,8 +3321,24 @@
       <c r="E71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72">
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>46</v>
       </c>
@@ -2150,8 +3354,24 @@
       <c r="E72">
         <v>200</v>
       </c>
-    </row>
-    <row r="73">
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2167,8 +3387,24 @@
       <c r="E73">
         <v>100</v>
       </c>
-    </row>
-    <row r="74">
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -2184,8 +3420,24 @@
       <c r="E74">
         <v>250</v>
       </c>
-    </row>
-    <row r="75">
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -2201,8 +3453,24 @@
       <c r="E75">
         <v>70</v>
       </c>
-    </row>
-    <row r="76">
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>0.21</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>110</v>
       </c>
@@ -2218,8 +3486,24 @@
       <c r="E76">
         <v>150</v>
       </c>
-    </row>
-    <row r="77">
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -2235,8 +3519,24 @@
       <c r="E77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78">
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>56</v>
       </c>
@@ -2252,8 +3552,24 @@
       <c r="E78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79">
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -2269,8 +3585,24 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80">
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -2286,8 +3618,24 @@
       <c r="E80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81">
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>62</v>
       </c>
@@ -2303,8 +3651,24 @@
       <c r="E81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82">
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>64</v>
       </c>
@@ -2320,8 +3684,24 @@
       <c r="E82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83">
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>66</v>
       </c>
@@ -2337,8 +3717,24 @@
       <c r="E83">
         <v>300</v>
       </c>
-    </row>
-    <row r="84">
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -2354,8 +3750,24 @@
       <c r="E84">
         <v>200</v>
       </c>
-    </row>
-    <row r="85">
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -2371,8 +3783,24 @@
       <c r="E85">
         <v>70</v>
       </c>
-    </row>
-    <row r="86">
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>0.21</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>72</v>
       </c>
@@ -2388,8 +3816,24 @@
       <c r="E86">
         <v>250</v>
       </c>
-    </row>
-    <row r="87">
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>74</v>
       </c>
@@ -2405,8 +3849,24 @@
       <c r="E87">
         <v>150</v>
       </c>
-    </row>
-    <row r="88">
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>76</v>
       </c>
@@ -2422,8 +3882,24 @@
       <c r="E88">
         <v>70</v>
       </c>
-    </row>
-    <row r="89">
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>0.21</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>78</v>
       </c>
@@ -2439,8 +3915,24 @@
       <c r="E89">
         <v>500</v>
       </c>
-    </row>
-    <row r="90">
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>80</v>
       </c>
@@ -2456,8 +3948,24 @@
       <c r="E90">
         <v>2000</v>
       </c>
-    </row>
-    <row r="91">
+      <c r="F90">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -2473,8 +3981,24 @@
       <c r="E91">
         <v>500</v>
       </c>
-    </row>
-    <row r="92">
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -2490,8 +4014,24 @@
       <c r="E92">
         <v>130</v>
       </c>
-    </row>
-    <row r="93">
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>0.39</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="6"/>
+        <v>0.26</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2507,8 +4047,24 @@
       <c r="E93">
         <v>130</v>
       </c>
-    </row>
-    <row r="94">
+      <c r="F93">
+        <f t="shared" si="4"/>
+        <v>0.39</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>0.26</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -2524,8 +4080,24 @@
       <c r="E94">
         <v>150</v>
       </c>
-    </row>
-    <row r="95">
+      <c r="F94">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>90</v>
       </c>
@@ -2541,8 +4113,24 @@
       <c r="E95">
         <v>1000</v>
       </c>
-    </row>
-    <row r="96">
+      <c r="F95">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -2558,8 +4146,24 @@
       <c r="E96">
         <v>100</v>
       </c>
-    </row>
-    <row r="97">
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -2575,8 +4179,24 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98">
+      <c r="F97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -2592,8 +4212,24 @@
       <c r="E98">
         <v>200</v>
       </c>
-    </row>
-    <row r="99">
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2609,8 +4245,24 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100">
+      <c r="F99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2626,8 +4278,24 @@
       <c r="E100">
         <v>100</v>
       </c>
-    </row>
-    <row r="101">
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2643,8 +4311,24 @@
       <c r="E101">
         <v>80</v>
       </c>
-    </row>
-    <row r="102">
+      <c r="F101">
+        <f t="shared" si="4"/>
+        <v>0.24</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="6"/>
+        <v>0.16</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -2660,8 +4344,24 @@
       <c r="E102">
         <v>23</v>
       </c>
-    </row>
-    <row r="103">
+      <c r="F102">
+        <f t="shared" si="4"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="6"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -2677,8 +4377,24 @@
       <c r="E103">
         <v>17</v>
       </c>
-    </row>
-    <row r="104">
+      <c r="F103">
+        <f t="shared" si="4"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="6"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -2694,8 +4410,24 @@
       <c r="E104">
         <v>35</v>
       </c>
-    </row>
-    <row r="105">
+      <c r="F104">
+        <f t="shared" si="4"/>
+        <v>0.105</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -2711,8 +4443,24 @@
       <c r="E105">
         <v>23</v>
       </c>
-    </row>
-    <row r="106">
+      <c r="F105">
+        <f t="shared" si="4"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="6"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -2728,8 +4476,24 @@
       <c r="E106">
         <v>23</v>
       </c>
-    </row>
-    <row r="107">
+      <c r="F106">
+        <f t="shared" si="4"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="6"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -2745,8 +4509,24 @@
       <c r="E107">
         <v>35</v>
       </c>
-    </row>
-    <row r="108">
+      <c r="F107">
+        <f t="shared" si="4"/>
+        <v>0.105</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -2762,8 +4542,24 @@
       <c r="E108">
         <v>35</v>
       </c>
-    </row>
-    <row r="109">
+      <c r="F108">
+        <f t="shared" si="4"/>
+        <v>0.105</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -2779,8 +4575,24 @@
       <c r="E109">
         <v>58</v>
       </c>
-    </row>
-    <row r="110">
+      <c r="F109">
+        <f t="shared" si="4"/>
+        <v>0.17400000000000002</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="6"/>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -2796,8 +4608,24 @@
       <c r="E110">
         <v>58</v>
       </c>
-    </row>
-    <row r="111">
+      <c r="F110">
+        <f t="shared" si="4"/>
+        <v>0.17400000000000002</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="6"/>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -2813,8 +4641,24 @@
       <c r="E111">
         <v>115</v>
       </c>
-    </row>
-    <row r="112">
+      <c r="F111">
+        <f t="shared" si="4"/>
+        <v>0.34500000000000003</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="6"/>
+        <v>0.23</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -2830,8 +4674,24 @@
       <c r="E112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113">
+      <c r="F112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -2847,8 +4707,24 @@
       <c r="E113">
         <v>35</v>
       </c>
-    </row>
-    <row r="114">
+      <c r="F113">
+        <f t="shared" si="4"/>
+        <v>0.105</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -2864,8 +4740,24 @@
       <c r="E114">
         <v>80</v>
       </c>
-    </row>
-    <row r="115">
+      <c r="F114">
+        <f t="shared" si="4"/>
+        <v>0.24</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="6"/>
+        <v>0.16</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -2881,8 +4773,24 @@
       <c r="E115">
         <v>80</v>
       </c>
-    </row>
-    <row r="116">
+      <c r="F115">
+        <f t="shared" si="4"/>
+        <v>0.24</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="6"/>
+        <v>0.16</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -2898,8 +4806,24 @@
       <c r="E116">
         <v>100</v>
       </c>
-    </row>
-    <row r="117">
+      <c r="F116">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>134</v>
       </c>
@@ -2915,8 +4839,24 @@
       <c r="E117">
         <v>250</v>
       </c>
-    </row>
-    <row r="118">
+      <c r="F117">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -2932,8 +4872,24 @@
       <c r="E118">
         <v>920</v>
       </c>
-    </row>
-    <row r="119">
+      <c r="F118">
+        <f t="shared" si="4"/>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="6"/>
+        <v>1.84</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -2949,8 +4905,24 @@
       <c r="E119">
         <v>920</v>
       </c>
-    </row>
-    <row r="120">
+      <c r="F119">
+        <f t="shared" si="4"/>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="6"/>
+        <v>1.84</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>140</v>
       </c>
@@ -2966,8 +4938,24 @@
       <c r="E120">
         <v>1150</v>
       </c>
-    </row>
-    <row r="121">
+      <c r="F120">
+        <f t="shared" si="4"/>
+        <v>3.45</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="6"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -2983,8 +4971,24 @@
       <c r="E121">
         <v>920</v>
       </c>
-    </row>
-    <row r="122">
+      <c r="F121">
+        <f t="shared" si="4"/>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="6"/>
+        <v>1.84</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>144</v>
       </c>
@@ -3000,8 +5004,24 @@
       <c r="E122">
         <v>1150</v>
       </c>
-    </row>
-    <row r="123">
+      <c r="F122">
+        <f t="shared" si="4"/>
+        <v>3.45</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="6"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>146</v>
       </c>
@@ -3017,8 +5037,24 @@
       <c r="E123">
         <v>1150</v>
       </c>
-    </row>
-    <row r="124">
+      <c r="F123">
+        <f t="shared" si="4"/>
+        <v>3.45</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="6"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>148</v>
       </c>
@@ -3034,8 +5070,24 @@
       <c r="E124">
         <v>575</v>
       </c>
-    </row>
-    <row r="125">
+      <c r="F124">
+        <f t="shared" si="4"/>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="6"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>150</v>
       </c>
@@ -3051,8 +5103,24 @@
       <c r="E125">
         <v>575</v>
       </c>
-    </row>
-    <row r="126">
+      <c r="F125">
+        <f t="shared" si="4"/>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="6"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -3068,8 +5136,24 @@
       <c r="E126">
         <v>345</v>
       </c>
-    </row>
-    <row r="127">
+      <c r="F126">
+        <f t="shared" si="4"/>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="6"/>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>154</v>
       </c>
@@ -3085,8 +5169,24 @@
       <c r="E127">
         <v>2875</v>
       </c>
-    </row>
-    <row r="128">
+      <c r="F127">
+        <f t="shared" si="4"/>
+        <v>8.625</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="6"/>
+        <v>5.75</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>156</v>
       </c>
@@ -3102,8 +5202,24 @@
       <c r="E128">
         <v>3450</v>
       </c>
-    </row>
-    <row r="129">
+      <c r="F128">
+        <f t="shared" si="4"/>
+        <v>10.35</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="6"/>
+        <v>6.9</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>158</v>
       </c>
@@ -3119,8 +5235,24 @@
       <c r="E129">
         <v>250</v>
       </c>
-    </row>
-    <row r="130">
+      <c r="F129">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>160</v>
       </c>
@@ -3136,8 +5268,24 @@
       <c r="E130">
         <v>230</v>
       </c>
-    </row>
-    <row r="131">
+      <c r="F130">
+        <f t="shared" ref="F130:F193" si="8">E130*0.003</f>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="G130">
+        <f t="shared" ref="G130:G193" si="9">M139</f>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f t="shared" ref="H130:H193" si="10">E130*0.002</f>
+        <v>0.46</v>
+      </c>
+      <c r="I130">
+        <f t="shared" ref="I130:I193" si="11">ROUNDDOWN(H130,-2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>162</v>
       </c>
@@ -3153,8 +5301,24 @@
       <c r="E131">
         <v>220</v>
       </c>
-    </row>
-    <row r="132">
+      <c r="F131">
+        <f t="shared" si="8"/>
+        <v>0.66</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="10"/>
+        <v>0.44</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>164</v>
       </c>
@@ -3170,8 +5334,24 @@
       <c r="E132">
         <v>220</v>
       </c>
-    </row>
-    <row r="133">
+      <c r="F132">
+        <f t="shared" si="8"/>
+        <v>0.66</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="10"/>
+        <v>0.44</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -3187,8 +5367,24 @@
       <c r="E133">
         <v>500</v>
       </c>
-    </row>
-    <row r="134">
+      <c r="F133">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -3204,8 +5400,24 @@
       <c r="E134">
         <v>200</v>
       </c>
-    </row>
-    <row r="135">
+      <c r="F134">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -3221,8 +5433,24 @@
       <c r="E135">
         <v>50</v>
       </c>
-    </row>
-    <row r="136">
+      <c r="F135">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>170</v>
       </c>
@@ -3238,8 +5466,24 @@
       <c r="E136">
         <v>250</v>
       </c>
-    </row>
-    <row r="137">
+      <c r="F136">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>172</v>
       </c>
@@ -3255,8 +5499,24 @@
       <c r="E137">
         <v>200</v>
       </c>
-    </row>
-    <row r="138">
+      <c r="F137">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>95</v>
       </c>
@@ -3272,8 +5532,24 @@
       <c r="E138">
         <v>200</v>
       </c>
-    </row>
-    <row r="139">
+      <c r="F138">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>97</v>
       </c>
@@ -3289,8 +5565,24 @@
       <c r="E139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140">
+      <c r="F139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>174</v>
       </c>
@@ -3306,8 +5598,24 @@
       <c r="E140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141">
+      <c r="F140">
+        <f t="shared" si="8"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -3323,8 +5631,24 @@
       <c r="E141">
         <v>90</v>
       </c>
-    </row>
-    <row r="142">
+      <c r="F141">
+        <f t="shared" si="8"/>
+        <v>0.27</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="10"/>
+        <v>0.18</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>104</v>
       </c>
@@ -3340,8 +5664,24 @@
       <c r="E142">
         <v>50</v>
       </c>
-    </row>
-    <row r="143">
+      <c r="F142">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3357,8 +5697,24 @@
       <c r="E143">
         <v>100</v>
       </c>
-    </row>
-    <row r="144">
+      <c r="F143">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -3374,8 +5730,24 @@
       <c r="E144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145">
+      <c r="F144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -3391,8 +5763,24 @@
       <c r="E145">
         <v>35</v>
       </c>
-    </row>
-    <row r="146">
+      <c r="F145">
+        <f t="shared" si="8"/>
+        <v>0.105</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="10"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>22</v>
       </c>
@@ -3408,8 +5796,24 @@
       <c r="E146">
         <v>80</v>
       </c>
-    </row>
-    <row r="147">
+      <c r="F146">
+        <f t="shared" si="8"/>
+        <v>0.24</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="10"/>
+        <v>0.16</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>132</v>
       </c>
@@ -3425,8 +5829,24 @@
       <c r="E147">
         <v>100</v>
       </c>
-    </row>
-    <row r="148">
+      <c r="F147">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>134</v>
       </c>
@@ -3442,8 +5862,24 @@
       <c r="E148">
         <v>250</v>
       </c>
-    </row>
-    <row r="149">
+      <c r="F148">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>136</v>
       </c>
@@ -3459,8 +5895,24 @@
       <c r="E149">
         <v>800</v>
       </c>
-    </row>
-    <row r="150">
+      <c r="F149">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="10"/>
+        <v>1.6</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>138</v>
       </c>
@@ -3476,8 +5928,24 @@
       <c r="E150">
         <v>800</v>
       </c>
-    </row>
-    <row r="151">
+      <c r="F150">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="10"/>
+        <v>1.6</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>140</v>
       </c>
@@ -3493,8 +5961,24 @@
       <c r="E151">
         <v>1000</v>
       </c>
-    </row>
-    <row r="152">
+      <c r="F151">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>142</v>
       </c>
@@ -3510,8 +5994,24 @@
       <c r="E152">
         <v>800</v>
       </c>
-    </row>
-    <row r="153">
+      <c r="F152">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="10"/>
+        <v>1.6</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -3527,8 +6027,24 @@
       <c r="E153">
         <v>1000</v>
       </c>
-    </row>
-    <row r="154">
+      <c r="F153">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>146</v>
       </c>
@@ -3544,8 +6060,24 @@
       <c r="E154">
         <v>1000</v>
       </c>
-    </row>
-    <row r="155">
+      <c r="F154">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>148</v>
       </c>
@@ -3561,8 +6093,24 @@
       <c r="E155">
         <v>500</v>
       </c>
-    </row>
-    <row r="156">
+      <c r="F155">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>150</v>
       </c>
@@ -3578,8 +6126,24 @@
       <c r="E156">
         <v>500</v>
       </c>
-    </row>
-    <row r="157">
+      <c r="F156">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -3595,8 +6159,24 @@
       <c r="E157">
         <v>300</v>
       </c>
-    </row>
-    <row r="158">
+      <c r="F157">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>154</v>
       </c>
@@ -3612,8 +6192,24 @@
       <c r="E158">
         <v>2500</v>
       </c>
-    </row>
-    <row r="159">
+      <c r="F158">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -3629,8 +6225,24 @@
       <c r="E159">
         <v>3000</v>
       </c>
-    </row>
-    <row r="160">
+      <c r="F159">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -3646,8 +6258,24 @@
       <c r="E160">
         <v>250</v>
       </c>
-    </row>
-    <row r="161">
+      <c r="F160">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3663,8 +6291,24 @@
       <c r="E161">
         <v>200</v>
       </c>
-    </row>
-    <row r="162">
+      <c r="F161">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3680,8 +6324,24 @@
       <c r="E162">
         <v>200</v>
       </c>
-    </row>
-    <row r="163">
+      <c r="F162">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -3697,8 +6357,24 @@
       <c r="E163">
         <v>200</v>
       </c>
-    </row>
-    <row r="164">
+      <c r="F163">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -3714,8 +6390,24 @@
       <c r="E164">
         <v>450</v>
       </c>
-    </row>
-    <row r="165">
+      <c r="F164">
+        <f t="shared" si="8"/>
+        <v>1.35</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -3731,8 +6423,24 @@
       <c r="E165">
         <v>200</v>
       </c>
-    </row>
-    <row r="166">
+      <c r="F165">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -3748,8 +6456,24 @@
       <c r="E166">
         <v>50</v>
       </c>
-    </row>
-    <row r="167">
+      <c r="F166">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -3765,8 +6489,24 @@
       <c r="E167">
         <v>250</v>
       </c>
-    </row>
-    <row r="168">
+      <c r="F167">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>177</v>
       </c>
@@ -3782,8 +6522,24 @@
       <c r="E168">
         <v>100</v>
       </c>
-    </row>
-    <row r="169">
+      <c r="F168">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -3799,8 +6555,24 @@
       <c r="E169">
         <v>200</v>
       </c>
-    </row>
-    <row r="170">
+      <c r="F169">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>95</v>
       </c>
@@ -3816,8 +6588,24 @@
       <c r="E170">
         <v>200</v>
       </c>
-    </row>
-    <row r="171">
+      <c r="F170">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>97</v>
       </c>
@@ -3833,8 +6621,24 @@
       <c r="E171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172">
+      <c r="F171">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -3850,8 +6654,24 @@
       <c r="E172">
         <v>5</v>
       </c>
-    </row>
-    <row r="173">
+      <c r="F172">
+        <f t="shared" si="8"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="10"/>
+        <v>0.01</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>101</v>
       </c>
@@ -3867,8 +6687,24 @@
       <c r="E173">
         <v>80</v>
       </c>
-    </row>
-    <row r="174">
+      <c r="F173">
+        <f t="shared" si="8"/>
+        <v>0.24</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="10"/>
+        <v>0.16</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>112</v>
       </c>
@@ -3884,8 +6720,24 @@
       <c r="E174">
         <v>20</v>
       </c>
-    </row>
-    <row r="175">
+      <c r="F174">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="10"/>
+        <v>0.04</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>115</v>
       </c>
@@ -3901,8 +6753,24 @@
       <c r="E175">
         <v>16</v>
       </c>
-    </row>
-    <row r="176">
+      <c r="F175">
+        <f t="shared" si="8"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="10"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>117</v>
       </c>
@@ -3918,8 +6786,24 @@
       <c r="E176">
         <v>30</v>
       </c>
-    </row>
-    <row r="177">
+      <c r="F176">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="10"/>
+        <v>0.06</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>119</v>
       </c>
@@ -3935,8 +6819,24 @@
       <c r="E177">
         <v>24</v>
       </c>
-    </row>
-    <row r="178">
+      <c r="F177">
+        <f t="shared" si="8"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="10"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>121</v>
       </c>
@@ -3952,8 +6852,24 @@
       <c r="E178">
         <v>20</v>
       </c>
-    </row>
-    <row r="179">
+      <c r="F178">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="10"/>
+        <v>0.04</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>123</v>
       </c>
@@ -3969,8 +6885,24 @@
       <c r="E179">
         <v>30</v>
       </c>
-    </row>
-    <row r="180">
+      <c r="F179">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="10"/>
+        <v>0.06</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>125</v>
       </c>
@@ -3986,8 +6918,24 @@
       <c r="E180">
         <v>30</v>
       </c>
-    </row>
-    <row r="181">
+      <c r="F180">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="10"/>
+        <v>0.06</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4003,8 +6951,24 @@
       <c r="E181">
         <v>200</v>
       </c>
-    </row>
-    <row r="182">
+      <c r="F181">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -4020,8 +6984,24 @@
       <c r="E182">
         <v>300</v>
       </c>
-    </row>
-    <row r="183">
+      <c r="F182">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>40</v>
       </c>
@@ -4037,8 +7017,24 @@
       <c r="E183">
         <v>50</v>
       </c>
-    </row>
-    <row r="184">
+      <c r="F183">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>40</v>
       </c>
@@ -4054,8 +7050,24 @@
       <c r="E184">
         <v>200</v>
       </c>
-    </row>
-    <row r="185">
+      <c r="F184">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>40</v>
       </c>
@@ -4071,8 +7083,24 @@
       <c r="E185">
         <v>200</v>
       </c>
-    </row>
-    <row r="186">
+      <c r="F185">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>112</v>
       </c>
@@ -4088,8 +7116,24 @@
       <c r="E186">
         <v>20</v>
       </c>
-    </row>
-    <row r="187">
+      <c r="F186">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="10"/>
+        <v>0.04</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>115</v>
       </c>
@@ -4105,8 +7149,24 @@
       <c r="E187">
         <v>15</v>
       </c>
-    </row>
-    <row r="188">
+      <c r="F187">
+        <f t="shared" si="8"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>117</v>
       </c>
@@ -4122,8 +7182,24 @@
       <c r="E188">
         <v>30</v>
       </c>
-    </row>
-    <row r="189">
+      <c r="F188">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="10"/>
+        <v>0.06</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>119</v>
       </c>
@@ -4139,8 +7215,24 @@
       <c r="E189">
         <v>20</v>
       </c>
-    </row>
-    <row r="190">
+      <c r="F189">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="10"/>
+        <v>0.04</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>121</v>
       </c>
@@ -4156,8 +7248,24 @@
       <c r="E190">
         <v>20</v>
       </c>
-    </row>
-    <row r="191">
+      <c r="F190">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="10"/>
+        <v>0.04</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>123</v>
       </c>
@@ -4173,8 +7281,24 @@
       <c r="E191">
         <v>30</v>
       </c>
-    </row>
-    <row r="192">
+      <c r="F191">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="10"/>
+        <v>0.06</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>125</v>
       </c>
@@ -4190,8 +7314,24 @@
       <c r="E192">
         <v>30</v>
       </c>
-    </row>
-    <row r="193">
+      <c r="F192">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="10"/>
+        <v>0.06</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>127</v>
       </c>
@@ -4207,8 +7347,24 @@
       <c r="E193">
         <v>50</v>
       </c>
-    </row>
-    <row r="194">
+      <c r="F193">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>129</v>
       </c>
@@ -4224,8 +7380,24 @@
       <c r="E194">
         <v>50</v>
       </c>
-    </row>
-    <row r="195">
+      <c r="F194">
+        <f t="shared" ref="F194:F257" si="12">E194*0.003</f>
+        <v>0.15</v>
+      </c>
+      <c r="G194">
+        <f t="shared" ref="G194:G257" si="13">M203</f>
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <f t="shared" ref="H194:H203" si="14">E194*0.002</f>
+        <v>0.1</v>
+      </c>
+      <c r="I194">
+        <f t="shared" ref="I194:I257" si="15">ROUNDDOWN(H194,-2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>187</v>
       </c>
@@ -4241,8 +7413,24 @@
       <c r="E195">
         <v>15</v>
       </c>
-    </row>
-    <row r="196">
+      <c r="F195">
+        <f t="shared" si="12"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="14"/>
+        <v>0.03</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>180</v>
       </c>
@@ -4258,8 +7446,24 @@
       <c r="E196">
         <v>200</v>
       </c>
-    </row>
-    <row r="197">
+      <c r="F196">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>182</v>
       </c>
@@ -4275,8 +7479,24 @@
       <c r="E197">
         <v>300</v>
       </c>
-    </row>
-    <row r="198">
+      <c r="F197">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="14"/>
+        <v>0.6</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -4292,8 +7512,24 @@
       <c r="E198">
         <v>35</v>
       </c>
-    </row>
-    <row r="199">
+      <c r="F198">
+        <f t="shared" si="12"/>
+        <v>0.105</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="14"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>190</v>
       </c>
@@ -4309,8 +7545,24 @@
       <c r="E199">
         <v>15</v>
       </c>
-    </row>
-    <row r="200">
+      <c r="F199">
+        <f t="shared" si="12"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="14"/>
+        <v>0.03</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>101</v>
       </c>
@@ -4326,8 +7578,24 @@
       <c r="E200">
         <v>90</v>
       </c>
-    </row>
-    <row r="201">
+      <c r="F200">
+        <f t="shared" si="12"/>
+        <v>0.27</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="14"/>
+        <v>0.18</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -4343,8 +7611,24 @@
       <c r="E201">
         <v>35</v>
       </c>
-    </row>
-    <row r="202">
+      <c r="F201">
+        <f t="shared" si="12"/>
+        <v>0.105</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="14"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>190</v>
       </c>
@@ -4360,8 +7644,24 @@
       <c r="E202">
         <v>15</v>
       </c>
-    </row>
-    <row r="203">
+      <c r="F202">
+        <f t="shared" si="12"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="14"/>
+        <v>0.03</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>101</v>
       </c>
@@ -4377,8 +7677,27 @@
       <c r="E203">
         <v>80</v>
       </c>
+      <c r="F203">
+        <f t="shared" si="12"/>
+        <v>0.24</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="14"/>
+        <v>0.16</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>